--- a/Phenoloxidase Activity data/Data for 150 samples/13. Phenoloxidase 09-08-24 (HEG 39 - 47).xlsx
+++ b/Phenoloxidase Activity data/Data for 150 samples/13. Phenoloxidase 09-08-24 (HEG 39 - 47).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Data\Phenol oxidase activity\Phenoloxidase Activity data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Research\Phenoloxidase Activity data\Data for 150 samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Original data" sheetId="2" r:id="rId1"/>
@@ -815,6 +815,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1019,11 +1020,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="288570976"/>
-        <c:axId val="247136864"/>
+        <c:axId val="259206448"/>
+        <c:axId val="259202800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="288570976"/>
+        <c:axId val="259206448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1080,12 +1081,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247136864"/>
+        <c:crossAx val="259202800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247136864"/>
+        <c:axId val="259202800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1142,7 +1143,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288570976"/>
+        <c:crossAx val="259206448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1206,7 +1207,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1281,7 +1281,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1376,11 +1375,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="288593768"/>
-        <c:axId val="288592592"/>
+        <c:axId val="258886288"/>
+        <c:axId val="258889424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="288593768"/>
+        <c:axId val="258886288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1437,12 +1436,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288592592"/>
+        <c:crossAx val="258889424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="288592592"/>
+        <c:axId val="258889424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1499,7 +1498,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288593768"/>
+        <c:crossAx val="258886288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1563,7 +1562,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1638,7 +1636,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1763,11 +1760,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="288594552"/>
-        <c:axId val="288595728"/>
+        <c:axId val="258891384"/>
+        <c:axId val="258889816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="288594552"/>
+        <c:axId val="258891384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1824,12 +1821,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288595728"/>
+        <c:crossAx val="258889816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="288595728"/>
+        <c:axId val="258889816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1886,7 +1883,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288594552"/>
+        <c:crossAx val="258891384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2150,11 +2147,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="247162232"/>
-        <c:axId val="247162616"/>
+        <c:axId val="258367552"/>
+        <c:axId val="258367936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247162232"/>
+        <c:axId val="258367552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2211,12 +2208,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247162616"/>
+        <c:crossAx val="258367936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247162616"/>
+        <c:axId val="258367936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2273,7 +2270,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247162232"/>
+        <c:crossAx val="258367552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2537,11 +2534,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="247852704"/>
-        <c:axId val="247853088"/>
+        <c:axId val="258378400"/>
+        <c:axId val="259221896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247852704"/>
+        <c:axId val="258378400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2598,12 +2595,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247853088"/>
+        <c:crossAx val="259221896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247853088"/>
+        <c:axId val="259221896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2660,7 +2657,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247852704"/>
+        <c:crossAx val="258378400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2929,11 +2926,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="247861960"/>
-        <c:axId val="247862344"/>
+        <c:axId val="259275648"/>
+        <c:axId val="259276032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247861960"/>
+        <c:axId val="259275648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2990,12 +2987,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247862344"/>
+        <c:crossAx val="259276032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247862344"/>
+        <c:axId val="259276032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3052,7 +3049,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247861960"/>
+        <c:crossAx val="259275648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3314,11 +3311,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="288834544"/>
-        <c:axId val="288834928"/>
+        <c:axId val="259277872"/>
+        <c:axId val="258765112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="288834544"/>
+        <c:axId val="259277872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3375,12 +3372,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288834928"/>
+        <c:crossAx val="258765112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="288834928"/>
+        <c:axId val="258765112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3437,7 +3434,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288834544"/>
+        <c:crossAx val="259277872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3713,11 +3710,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="288594944"/>
-        <c:axId val="288590632"/>
+        <c:axId val="257304984"/>
+        <c:axId val="257307336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="288594944"/>
+        <c:axId val="257304984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3774,12 +3771,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288590632"/>
+        <c:crossAx val="257307336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="288590632"/>
+        <c:axId val="257307336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3836,7 +3833,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288594944"/>
+        <c:crossAx val="257304984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4118,11 +4115,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="288591024"/>
-        <c:axId val="288595336"/>
+        <c:axId val="257304200"/>
+        <c:axId val="258890600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="288591024"/>
+        <c:axId val="257304200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4179,12 +4176,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288595336"/>
+        <c:crossAx val="258890600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="288595336"/>
+        <c:axId val="258890600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4241,7 +4238,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288591024"/>
+        <c:crossAx val="257304200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4509,11 +4506,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="288589848"/>
-        <c:axId val="288589456"/>
+        <c:axId val="258889032"/>
+        <c:axId val="258885112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="288589848"/>
+        <c:axId val="258889032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4570,12 +4567,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288589456"/>
+        <c:crossAx val="258885112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="288589456"/>
+        <c:axId val="258885112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4632,7 +4629,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288589848"/>
+        <c:crossAx val="258889032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4894,11 +4891,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="288592200"/>
-        <c:axId val="288591416"/>
+        <c:axId val="258884328"/>
+        <c:axId val="258888640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="288592200"/>
+        <c:axId val="258884328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4955,12 +4952,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288591416"/>
+        <c:crossAx val="258888640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="288591416"/>
+        <c:axId val="258888640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5017,7 +5014,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288592200"/>
+        <c:crossAx val="258884328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11787,8 +11784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L137"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103:L105"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15806,8 +15803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W140"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="M66" sqref="M66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20813,7 +20810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>

--- a/Phenoloxidase Activity data/Data for 150 samples/13. Phenoloxidase 09-08-24 (HEG 39 - 47).xlsx
+++ b/Phenoloxidase Activity data/Data for 150 samples/13. Phenoloxidase 09-08-24 (HEG 39 - 47).xlsx
@@ -1020,11 +1020,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="259206448"/>
-        <c:axId val="259202800"/>
+        <c:axId val="247182432"/>
+        <c:axId val="247294408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="259206448"/>
+        <c:axId val="247182432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1081,12 +1081,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259202800"/>
+        <c:crossAx val="247294408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="259202800"/>
+        <c:axId val="247294408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1143,7 +1143,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259206448"/>
+        <c:crossAx val="247182432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1375,11 +1375,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="258886288"/>
-        <c:axId val="258889424"/>
+        <c:axId val="248626576"/>
+        <c:axId val="248631672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="258886288"/>
+        <c:axId val="248626576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1436,12 +1436,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258889424"/>
+        <c:crossAx val="248631672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="258889424"/>
+        <c:axId val="248631672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1498,7 +1498,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258886288"/>
+        <c:crossAx val="248626576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1760,11 +1760,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="258891384"/>
-        <c:axId val="258889816"/>
+        <c:axId val="248629320"/>
+        <c:axId val="248628144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="258891384"/>
+        <c:axId val="248629320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1821,12 +1821,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258889816"/>
+        <c:crossAx val="248628144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="258889816"/>
+        <c:axId val="248628144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1883,7 +1883,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258891384"/>
+        <c:crossAx val="248629320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2147,11 +2147,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="258367552"/>
-        <c:axId val="258367936"/>
+        <c:axId val="248721000"/>
+        <c:axId val="247928080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="258367552"/>
+        <c:axId val="248721000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2208,12 +2208,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258367936"/>
+        <c:crossAx val="247928080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="258367936"/>
+        <c:axId val="247928080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2270,7 +2270,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258367552"/>
+        <c:crossAx val="248721000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2534,11 +2534,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="258378400"/>
-        <c:axId val="259221896"/>
+        <c:axId val="247980960"/>
+        <c:axId val="247981344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="258378400"/>
+        <c:axId val="247980960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2595,12 +2595,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259221896"/>
+        <c:crossAx val="247981344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="259221896"/>
+        <c:axId val="247981344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2657,7 +2657,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258378400"/>
+        <c:crossAx val="247980960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2926,11 +2926,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="259275648"/>
-        <c:axId val="259276032"/>
+        <c:axId val="248135752"/>
+        <c:axId val="248136136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="259275648"/>
+        <c:axId val="248135752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2987,12 +2987,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259276032"/>
+        <c:crossAx val="248136136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="259276032"/>
+        <c:axId val="248136136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3049,7 +3049,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259275648"/>
+        <c:crossAx val="248135752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3113,6 +3113,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3187,6 +3188,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3311,11 +3313,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="259277872"/>
-        <c:axId val="258765112"/>
+        <c:axId val="248168136"/>
+        <c:axId val="248747624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="259277872"/>
+        <c:axId val="248168136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3372,12 +3374,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258765112"/>
+        <c:crossAx val="248747624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="258765112"/>
+        <c:axId val="248747624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3434,7 +3436,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259277872"/>
+        <c:crossAx val="248168136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3498,6 +3500,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3572,6 +3575,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3710,11 +3714,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="257304984"/>
-        <c:axId val="257307336"/>
+        <c:axId val="248750008"/>
+        <c:axId val="248748832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="257304984"/>
+        <c:axId val="248750008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3771,12 +3775,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257307336"/>
+        <c:crossAx val="248748832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="257307336"/>
+        <c:axId val="248748832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3833,7 +3837,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257304984"/>
+        <c:crossAx val="248750008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3897,6 +3901,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4115,11 +4120,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="257304200"/>
-        <c:axId val="258890600"/>
+        <c:axId val="248749616"/>
+        <c:axId val="248750400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="257304200"/>
+        <c:axId val="248749616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4176,12 +4181,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258890600"/>
+        <c:crossAx val="248750400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="258890600"/>
+        <c:axId val="248750400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4238,7 +4243,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257304200"/>
+        <c:crossAx val="248749616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4302,6 +4307,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4506,11 +4512,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="258889032"/>
-        <c:axId val="258885112"/>
+        <c:axId val="248750792"/>
+        <c:axId val="248751576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="258889032"/>
+        <c:axId val="248750792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4567,12 +4573,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258885112"/>
+        <c:crossAx val="248751576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="258885112"/>
+        <c:axId val="248751576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4629,7 +4635,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258889032"/>
+        <c:crossAx val="248750792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4693,6 +4699,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4767,6 +4774,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4891,11 +4899,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="258884328"/>
-        <c:axId val="258888640"/>
+        <c:axId val="248626184"/>
+        <c:axId val="248627752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="258884328"/>
+        <c:axId val="248626184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4952,12 +4960,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258888640"/>
+        <c:crossAx val="248627752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="258888640"/>
+        <c:axId val="248627752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5014,7 +5022,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258884328"/>
+        <c:crossAx val="248626184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11784,8 +11792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L137"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97:L102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15804,7 +15812,7 @@
   <dimension ref="A2:W140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="M146" sqref="M146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20811,7 +20819,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
